--- a/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="575">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -537,10 +537,14 @@
     <t>BER</t>
   </si>
   <si>
-    <t>BER (Business and Enterprise Register), BUR (Betriebs- und Unternehmensregister), REE (Registre des entreprises et des établissements), RIS (Registro delle imprese e degli stabilimenti)</t>
-  </si>
-  <si>
-    <t>See [BER](http://fhir.ch/ig/ch-core/NamingSystem/ber)</t>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-ber-identifier}
+</t>
+  </si>
+  <si>
+    <t>An identifier intended for computation</t>
+  </si>
+  <si>
+    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -548,16 +552,23 @@
 &lt;/valueIdentifier&gt;</t>
   </si>
   <si>
+    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+  </si>
+  <si>
+    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
     <t>Organization.identifier:UIDB</t>
   </si>
   <si>
     <t>UIDB</t>
   </si>
   <si>
-    <t>UIDB (Unique Identification Business), UID (Verwendung der Unternehmens-Identifikationsnummer), IDE (Utilisation du numéro d'identification des entreprises), IDI (Utilizzo del numero d'identificazione delle imprese)</t>
-  </si>
-  <si>
-    <t>See [UIDB](http://fhir.ch/ig/ch-core/NamingSystem/uidb)</t>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-uidb-identifier}
+</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -571,6 +582,10 @@
     <t>ZSR</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-zsr-identifier}
+</t>
+  </si>
+  <si>
     <t>ZSR (Zahlstellenregister), RCC (Registre des codes-créanciers), RCC (Registro dei codici creditori)</t>
   </si>
   <si>
@@ -592,10 +607,10 @@
 </t>
   </si>
   <si>
-    <t>An identifier intended for computation</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+    <t>Global Location Number (GLN)</t>
+  </si>
+  <si>
+    <t>See [GLN](http://fhir.ch/ig/ch-core/NamingSystem/gln)</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -603,15 +618,6 @@
 &lt;/valueIdentifier&gt;</t>
   </si>
   <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
     <t>Organization.active</t>
   </si>
   <si>
@@ -964,7 +970,7 @@
     <t>ContactPoint</t>
   </si>
   <si>
-    <t>eCH-0046: 4.3 email</t>
+    <t>eCH-0046: email</t>
   </si>
   <si>
     <t>Organization.telecom:phone</t>
@@ -980,7 +986,7 @@
     <t>CH Core ContactPoint eCH-0046 Phone</t>
   </si>
   <si>
-    <t>eCH-0046: 4.4 phone</t>
+    <t>eCH-0046: phone</t>
   </si>
   <si>
     <t>Organization.telecom:internet</t>
@@ -996,7 +1002,7 @@
     <t>CH Core ContactPoint eCH-0046 Internet</t>
   </si>
   <si>
-    <t>eCH-0046: 4.5 internet</t>
+    <t>eCH-0046: internet</t>
   </si>
   <si>
     <t>Organization.address</t>
@@ -1034,7 +1040,7 @@
     <t>Address</t>
   </si>
   <si>
-    <t>eCH-0010: 5.5 addressInformation</t>
+    <t>eCH-0010: addressInformation</t>
   </si>
   <si>
     <t>Organization.address.id</t>
@@ -1183,7 +1189,7 @@
     <t>eCH-0010: Extension to define line types for an address</t>
   </si>
   <si>
-    <t>eCH-0010: 5.12 addressLine1</t>
+    <t>eCH-0010: addressLine1</t>
   </si>
   <si>
     <t>Organization.address.line.extension:addressLine1.id</t>
@@ -1267,7 +1273,7 @@
     <t>addressLine2</t>
   </si>
   <si>
-    <t>eCH-0010: 5.12 addressLine2</t>
+    <t>eCH-0010: addressLine2</t>
   </si>
   <si>
     <t>Organization.address.line.extension:addressLine2.id</t>
@@ -1291,7 +1297,7 @@
     <t>street</t>
   </si>
   <si>
-    <t>eCH-0010: 5.13 street</t>
+    <t>eCH-0010: street</t>
   </si>
   <si>
     <t>Organization.address.line.extension:street.id</t>
@@ -1360,7 +1366,7 @@
     <t>ADXP[partType=UNID]</t>
   </si>
   <si>
-    <t>eCH-0010: 5.15 dwellingNumber</t>
+    <t>eCH-0010: dwellingNumber</t>
   </si>
   <si>
     <t>Organization.address.line.extension:postOfficeBoxText</t>
@@ -1372,7 +1378,7 @@
     <t>Postbox addresses need an postbox text and optional postbox number</t>
   </si>
   <si>
-    <t>eCH-0010: 5.17 postOfficeBoxText</t>
+    <t>eCH-0010: postOfficeBoxText</t>
   </si>
   <si>
     <t>Organization.address.line.extension:postOfficeBoxText.id</t>
@@ -1452,7 +1458,7 @@
     <t>./Jurisdiction</t>
   </si>
   <si>
-    <t>eCH-0010: 5.23 town</t>
+    <t>eCH-0010: town</t>
   </si>
   <si>
     <t>Organization.address.city.id</t>
@@ -1505,7 +1511,7 @@
     <t>AD.part[parttype = CNT | CPA]</t>
   </si>
   <si>
-    <t>eCH-0010: 5.22 locality</t>
+    <t>eCH-0010: locality</t>
   </si>
   <si>
     <t>Organization.address.state</t>
@@ -1570,7 +1576,7 @@
     <t>./PostalIdentificationCode</t>
   </si>
   <si>
-    <t>eCH-0010: 5.18 swissZipCode, 5.19 swissZipCodeAddOn, 5.20 swissZipCodeId, 5.21 foreignZipCode</t>
+    <t>eCH-0010: swissZipCode, swissZipCodeAddOn, swissZipCodeId, foreignZipCode</t>
   </si>
   <si>
     <t>Organization.address.country</t>
@@ -1597,7 +1603,7 @@
     <t>./Country</t>
   </si>
   <si>
-    <t>eCH-0010: 5.24 country</t>
+    <t>eCH-0010: country</t>
   </si>
   <si>
     <t>Organization.address.country.id</t>
@@ -2186,7 +2192,7 @@
     <col min="38" max="38" width="139.15234375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="91.45703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="72.90625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3494,7 +3500,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>89</v>
@@ -3611,25 +3617,25 @@
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3643,7 +3649,7 @@
         <v>79</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="T13" t="s" s="2">
         <v>79</v>
@@ -3691,22 +3697,22 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
@@ -3714,13 +3720,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>153</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>79</v>
@@ -3730,25 +3736,25 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3762,7 +3768,7 @@
         <v>79</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>79</v>
@@ -3810,22 +3816,22 @@
         <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>79</v>
@@ -3833,13 +3839,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>153</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>79</v>
@@ -3849,7 +3855,7 @@
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3858,16 +3864,16 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3881,7 +3887,7 @@
         <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>79</v>
@@ -3929,22 +3935,22 @@
         <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3952,13 +3958,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>153</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>79</v>
@@ -3971,7 +3977,7 @@
         <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>79</v>
@@ -3980,13 +3986,13 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4000,7 +4006,7 @@
         <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>79</v>
@@ -4054,13 +4060,13 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -4071,10 +4077,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4097,70 +4103,70 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="P17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4175,16 +4181,16 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -4192,10 +4198,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4218,19 +4224,19 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -4259,7 +4265,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -4277,7 +4283,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4292,16 +4298,16 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -4309,10 +4315,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4335,19 +4341,19 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4369,7 +4375,7 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="X19" t="s" s="2">
         <v>79</v>
@@ -4396,7 +4402,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4411,13 +4417,13 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4428,10 +4434,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4454,19 +4460,19 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4515,7 +4521,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4533,7 +4539,7 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4547,10 +4553,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4573,19 +4579,19 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -4622,7 +4628,7 @@
         <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
@@ -4632,7 +4638,7 @@
         <v>137</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4641,33 +4647,33 @@
         <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4690,13 +4696,13 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4747,7 +4753,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4765,7 +4771,7 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4779,10 +4785,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4808,10 +4814,10 @@
         <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>150</v>
@@ -4855,7 +4861,7 @@
         <v>136</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>79</v>
@@ -4864,7 +4870,7 @@
         <v>137</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4882,7 +4888,7 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -4896,10 +4902,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4925,10 +4931,10 @@
         <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4955,13 +4961,13 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -4979,7 +4985,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4988,19 +4994,19 @@
         <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5011,10 +5017,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5037,19 +5043,19 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -5098,7 +5104,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5113,13 +5119,13 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5130,10 +5136,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5159,16 +5165,16 @@
         <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -5193,13 +5199,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -5217,7 +5223,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5232,13 +5238,13 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5249,10 +5255,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5275,16 +5281,16 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5334,7 +5340,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5349,10 +5355,10 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5366,10 +5372,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5392,13 +5398,13 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5449,7 +5455,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5467,10 +5473,10 @@
         <v>131</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5481,13 +5487,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>79</v>
@@ -5509,19 +5515,19 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5570,7 +5576,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5582,33 +5588,33 @@
         <v>145</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>79</v>
@@ -5630,19 +5636,19 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5691,7 +5697,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5703,33 +5709,33 @@
         <v>145</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>79</v>
@@ -5751,19 +5757,19 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5812,7 +5818,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5824,30 +5830,30 @@
         <v>145</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5870,19 +5876,19 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5931,7 +5937,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5943,30 +5949,30 @@
         <v>145</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5989,13 +5995,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6046,7 +6052,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6064,7 +6070,7 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -6078,10 +6084,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6107,10 +6113,10 @@
         <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>150</v>
@@ -6154,7 +6160,7 @@
         <v>136</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>79</v>
@@ -6163,7 +6169,7 @@
         <v>137</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6181,7 +6187,7 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6195,10 +6201,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6224,16 +6230,16 @@
         <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -6246,7 +6252,7 @@
         <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>79</v>
@@ -6258,13 +6264,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6282,7 +6288,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6297,13 +6303,13 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6314,10 +6320,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6343,13 +6349,13 @@
         <v>108</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6363,7 +6369,7 @@
         <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>79</v>
@@ -6375,13 +6381,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -6399,7 +6405,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6414,10 +6420,10 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6431,10 +6437,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6457,19 +6463,19 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6482,7 +6488,7 @@
         <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>79</v>
@@ -6518,7 +6524,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6533,10 +6539,10 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -6550,10 +6556,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6576,13 +6582,13 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6597,7 +6603,7 @@
         <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>79</v>
@@ -6633,7 +6639,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6648,13 +6654,13 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6665,10 +6671,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6691,13 +6697,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6748,7 +6754,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6780,10 +6786,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6851,7 +6857,7 @@
         <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
@@ -6861,7 +6867,7 @@
         <v>137</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6893,13 +6899,13 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>79</v>
@@ -6921,13 +6927,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>134</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6978,7 +6984,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7005,15 +7011,15 @@
         <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7036,13 +7042,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7093,7 +7099,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7111,7 +7117,7 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -7125,10 +7131,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7199,7 +7205,7 @@
         <v>136</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>79</v>
@@ -7208,7 +7214,7 @@
         <v>137</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7240,10 +7246,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7269,13 +7275,13 @@
         <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7283,7 +7289,7 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>79</v>
@@ -7325,7 +7331,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>88</v>
@@ -7357,10 +7363,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7386,10 +7392,10 @@
         <v>108</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7428,17 +7434,17 @@
         <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7470,13 +7476,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>79</v>
@@ -7501,10 +7507,10 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7513,7 +7519,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>79</v>
@@ -7531,13 +7537,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7555,7 +7561,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7587,13 +7593,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>79</v>
@@ -7615,13 +7621,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>134</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7672,7 +7678,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7699,15 +7705,15 @@
         <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7730,13 +7736,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7787,7 +7793,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7805,7 +7811,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7819,10 +7825,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7893,7 +7899,7 @@
         <v>136</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>79</v>
@@ -7902,7 +7908,7 @@
         <v>137</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7934,10 +7940,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7963,13 +7969,13 @@
         <v>102</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7977,7 +7983,7 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>79</v>
@@ -8019,7 +8025,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>88</v>
@@ -8051,10 +8057,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8080,10 +8086,10 @@
         <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8122,17 +8128,17 @@
         <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8164,13 +8170,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>79</v>
@@ -8195,10 +8201,10 @@
         <v>108</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8207,7 +8213,7 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>79</v>
@@ -8225,13 +8231,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -8249,7 +8255,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8281,13 +8287,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>79</v>
@@ -8309,13 +8315,13 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>134</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8366,7 +8372,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8393,15 +8399,15 @@
         <v>79</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8424,13 +8430,13 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8481,7 +8487,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8499,7 +8505,7 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8513,10 +8519,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8587,7 +8593,7 @@
         <v>136</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>79</v>
@@ -8596,7 +8602,7 @@
         <v>137</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8628,10 +8634,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8657,13 +8663,13 @@
         <v>102</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8671,7 +8677,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>79</v>
@@ -8713,7 +8719,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>88</v>
@@ -8745,10 +8751,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8774,10 +8780,10 @@
         <v>108</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8816,17 +8822,17 @@
         <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8858,13 +8864,13 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>79</v>
@@ -8889,10 +8895,10 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8901,7 +8907,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>79</v>
@@ -8919,13 +8925,13 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -8943,7 +8949,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8975,13 +8981,13 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>79</v>
@@ -9003,13 +9009,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="M59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9060,7 +9066,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9078,7 +9084,7 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9092,13 +9098,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>79</v>
@@ -9120,13 +9126,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>417</v>
-      </c>
       <c r="M60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9177,7 +9183,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9195,7 +9201,7 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
@@ -9209,13 +9215,13 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>79</v>
@@ -9237,13 +9243,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9294,7 +9300,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9312,7 +9318,7 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
@@ -9321,18 +9327,18 @@
         <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>79</v>
@@ -9354,13 +9360,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9411,7 +9417,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9438,15 +9444,15 @@
         <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9469,13 +9475,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9526,7 +9532,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9544,7 +9550,7 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9558,10 +9564,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9632,7 +9638,7 @@
         <v>136</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>79</v>
@@ -9641,7 +9647,7 @@
         <v>137</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9673,10 +9679,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9702,13 +9708,13 @@
         <v>102</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9716,7 +9722,7 @@
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>79</v>
@@ -9758,7 +9764,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>88</v>
@@ -9790,10 +9796,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9819,10 +9825,10 @@
         <v>108</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9861,17 +9867,17 @@
         <v>79</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9903,13 +9909,13 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>79</v>
@@ -9934,10 +9940,10 @@
         <v>108</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9946,7 +9952,7 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>79</v>
@@ -9964,13 +9970,13 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -9988,7 +9994,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10020,13 +10026,13 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>79</v>
@@ -10048,13 +10054,13 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10105,7 +10111,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10123,7 +10129,7 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10137,10 +10143,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10163,13 +10169,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10193,7 +10199,7 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="X69" t="s" s="2">
         <v>79</v>
@@ -10220,7 +10226,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10252,14 +10258,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10278,13 +10284,13 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10299,7 +10305,7 @@
         <v>79</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>79</v>
@@ -10335,7 +10341,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10350,27 +10356,27 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10393,13 +10399,13 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10450,7 +10456,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10482,10 +10488,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10563,7 +10569,7 @@
         <v>137</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10595,13 +10601,13 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B73" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="B73" t="s" s="2">
-        <v>459</v>
-      </c>
       <c r="C73" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>79</v>
@@ -10623,13 +10629,13 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>134</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10680,7 +10686,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10712,10 +10718,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10738,13 +10744,13 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10768,7 +10774,7 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="X74" t="s" s="2">
         <v>79</v>
@@ -10795,7 +10801,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10827,14 +10833,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10853,16 +10859,16 @@
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10876,7 +10882,7 @@
         <v>79</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>79</v>
@@ -10912,7 +10918,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -10927,10 +10933,10 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -10939,19 +10945,19 @@
         <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10970,13 +10976,13 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11003,13 +11009,13 @@
         <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>79</v>
@@ -11027,7 +11033,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11042,31 +11048,31 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11085,13 +11091,13 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11106,7 +11112,7 @@
         <v>79</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="U77" t="s" s="2">
         <v>79</v>
@@ -11142,7 +11148,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11157,27 +11163,27 @@
         <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11200,16 +11206,16 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11259,7 +11265,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11274,27 +11280,27 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11317,13 +11323,13 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11374,7 +11380,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11406,10 +11412,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11487,7 +11493,7 @@
         <v>137</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11519,13 +11525,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B81" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="B81" t="s" s="2">
-        <v>506</v>
-      </c>
       <c r="C81" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>79</v>
@@ -11547,13 +11553,13 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11604,7 +11610,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11616,13 +11622,13 @@
         <v>145</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -11636,10 +11642,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11662,13 +11668,13 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11692,7 +11698,7 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="X82" t="s" s="2">
         <v>79</v>
@@ -11719,7 +11725,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11751,10 +11757,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11777,17 +11783,17 @@
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -11800,7 +11806,7 @@
         <v>79</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>79</v>
@@ -11836,7 +11842,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -11851,13 +11857,13 @@
         <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>79</v>
@@ -11868,10 +11874,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11894,17 +11900,17 @@
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>79</v>
@@ -11953,7 +11959,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -11968,13 +11974,13 @@
         <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>79</v>
@@ -11985,10 +11991,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12011,19 +12017,19 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>79</v>
@@ -12072,7 +12078,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12090,7 +12096,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -12104,10 +12110,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12130,13 +12136,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12187,7 +12193,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12205,7 +12211,7 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>79</v>
@@ -12219,10 +12225,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12248,10 +12254,10 @@
         <v>133</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>150</v>
@@ -12304,7 +12310,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12322,7 +12328,7 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -12336,14 +12342,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12365,10 +12371,10 @@
         <v>133</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>150</v>
@@ -12423,7 +12429,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12455,10 +12461,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12481,17 +12487,17 @@
         <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -12516,13 +12522,13 @@
         <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
@@ -12540,7 +12546,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12558,7 +12564,7 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
@@ -12572,10 +12578,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12598,17 +12604,17 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -12657,7 +12663,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12672,10 +12678,10 @@
         <v>100</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
@@ -12689,10 +12695,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12715,17 +12721,17 @@
         <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -12774,7 +12780,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -12789,10 +12795,10 @@
         <v>100</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -12806,10 +12812,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12832,17 +12838,17 @@
         <v>79</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -12891,7 +12897,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -12906,10 +12912,10 @@
         <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -12923,10 +12929,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12949,17 +12955,17 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>79</v>
@@ -13008,7 +13014,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13026,7 +13032,7 @@
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -537,7 +537,7 @@
     <t>BER</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-ber-identifier}
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-ber-identifier}
 </t>
   </si>
   <si>
@@ -567,7 +567,7 @@
     <t>UIDB</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-uidb-identifier}
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-uidb-identifier}
 </t>
   </si>
   <si>
@@ -2153,17 +2153,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="67.609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.5234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="69.96484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.62109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.51953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2172,27 +2172,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.6953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="77.3828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="75.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="79.60546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="76.22265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="103.671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="139.15234375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="210.3203125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="72.90625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="74.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -240,6 +240,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: eCH Standards</t>
+  </si>
+  <si>
     <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
@@ -250,9 +253,6 @@
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: eCH Standards</t>
   </si>
   <si>
     <t/>
@@ -537,7 +537,7 @@
     <t>BER</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-ber-identifier}
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-ber-identifier}
 </t>
   </si>
   <si>
@@ -567,7 +567,7 @@
     <t>UIDB</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-uidb-identifier}
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-uidb-identifier}
 </t>
   </si>
   <si>
@@ -589,7 +589,7 @@
     <t>ZSR (Zahlstellenregister), RCC (Registre des codes-créanciers), RCC (Registro dei codici creditori)</t>
   </si>
   <si>
-    <t>See [ZSR/RCC](http://fhir.ch/ig/ch-core/NamingSystem/zsr)</t>
+    <t>See [ZSR/RCC](http://fhir.ch/ig/ch-term/NamingSystem/zsr)</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -610,7 +610,7 @@
     <t>Global Location Number (GLN)</t>
   </si>
   <si>
-    <t>See [GLN](http://fhir.ch/ig/ch-core/NamingSystem/gln)</t>
+    <t>See [GLN](http://fhir.ch/ig/ch-term/NamingSystem/gln)</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -674,7 +674,7 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.healthcareFacilityTypeCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.healthcareFacilityTypeCode</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -767,6 +767,9 @@
 org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
+    <t>eCH-0046: Contact</t>
+  </si>
+  <si>
     <t>ORC-22?</t>
   </si>
   <si>
@@ -774,9 +777,6 @@
   </si>
   <si>
     <t>./ContactPoints</t>
-  </si>
-  <si>
-    <t>eCH-0046: Contact</t>
   </si>
   <si>
     <t>Organization.telecom.id</t>
@@ -961,6 +961,9 @@
 ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}org-3:The telecom of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
+    <t>eCH-0046: email</t>
+  </si>
+  <si>
     <t>XTN</t>
   </si>
   <si>
@@ -968,9 +971,6 @@
   </si>
   <si>
     <t>ContactPoint</t>
-  </si>
-  <si>
-    <t>eCH-0046: email</t>
   </si>
   <si>
     <t>Organization.telecom:phone</t>
@@ -1031,6 +1031,9 @@
              (state.empty() or state.memberOf('http://fhir.ch/ig/ch-core/ValueSet/ech-7-cantonabbreviation')))}org-2:An address of an organization can never be of use 'home' {where(use = 'home').empty()}</t>
   </si>
   <si>
+    <t>eCH-0010: addressInformation</t>
+  </si>
+  <si>
     <t>XAD</t>
   </si>
   <si>
@@ -1038,9 +1041,6 @@
   </si>
   <si>
     <t>Address</t>
-  </si>
-  <si>
-    <t>eCH-0010: addressInformation</t>
   </si>
   <si>
     <t>Organization.address.id</t>
@@ -1363,10 +1363,10 @@
     <t>The number or name of a specific unit contained within a building or complex, as assigned by that building or complex.</t>
   </si>
   <si>
+    <t>eCH-0010: dwellingNumber</t>
+  </si>
+  <si>
     <t>ADXP[partType=UNID]</t>
-  </si>
-  <si>
-    <t>eCH-0010: dwellingNumber</t>
   </si>
   <si>
     <t>Organization.address.line.extension:postOfficeBoxText</t>
@@ -1449,6 +1449,9 @@
     <t>Address.city</t>
   </si>
   <si>
+    <t>eCH-0010: town</t>
+  </si>
+  <si>
     <t>XAD.3</t>
   </si>
   <si>
@@ -1456,9 +1459,6 @@
   </si>
   <si>
     <t>./Jurisdiction</t>
-  </si>
-  <si>
-    <t>eCH-0010: town</t>
   </si>
   <si>
     <t>Organization.address.city.id</t>
@@ -1505,13 +1505,13 @@
     <t>Address.district</t>
   </si>
   <si>
+    <t>eCH-0010: locality</t>
+  </si>
+  <si>
     <t>XAD.9</t>
   </si>
   <si>
     <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>eCH-0010: locality</t>
   </si>
   <si>
     <t>Organization.address.state</t>
@@ -1567,6 +1567,9 @@
     <t>Address.postalCode</t>
   </si>
   <si>
+    <t>eCH-0010: swissZipCode, swissZipCodeAddOn, swissZipCodeId, foreignZipCode</t>
+  </si>
+  <si>
     <t>XAD.5</t>
   </si>
   <si>
@@ -1576,9 +1579,6 @@
     <t>./PostalIdentificationCode</t>
   </si>
   <si>
-    <t>eCH-0010: swissZipCode, swissZipCodeAddOn, swissZipCodeId, foreignZipCode</t>
-  </si>
-  <si>
     <t>Organization.address.country</t>
   </si>
   <si>
@@ -1594,6 +1594,9 @@
     <t>Address.country</t>
   </si>
   <si>
+    <t>eCH-0010: country</t>
+  </si>
+  <si>
     <t>XAD.6</t>
   </si>
   <si>
@@ -1601,9 +1604,6 @@
   </si>
   <si>
     <t>./Country</t>
-  </si>
-  <si>
-    <t>eCH-0010: country</t>
   </si>
   <si>
     <t>Organization.address.country.id</t>
@@ -2178,7 +2178,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="79.60546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="76.22265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="72.515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2188,11 +2188,11 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="107.3984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="143.74609375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="218.1953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="74.34375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="74.34375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="107.3984375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="143.74609375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="218.1953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2420,16 +2420,16 @@
         <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>79</v>
@@ -3006,10 +3006,10 @@
         <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -3123,10 +3123,10 @@
         <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -3472,10 +3472,10 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>79</v>
@@ -3584,19 +3584,19 @@
         <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AN12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -3703,16 +3703,16 @@
         <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
@@ -3822,16 +3822,16 @@
         <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>79</v>
@@ -3941,16 +3941,16 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -4060,16 +4060,16 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -4181,19 +4181,19 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
@@ -4298,19 +4298,19 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="19" hidden="true">
@@ -4417,16 +4417,16 @@
         <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -4539,10 +4539,10 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4662,10 +4662,10 @@
         <v>237</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>238</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" hidden="true">
@@ -4771,10 +4771,10 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4888,10 +4888,10 @@
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -5000,16 +5000,16 @@
         <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -5119,16 +5119,16 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -5238,16 +5238,16 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -5355,13 +5355,13 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>209</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5470,16 +5470,16 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5600,10 +5600,10 @@
         <v>300</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
@@ -5712,7 +5712,7 @@
         <v>297</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>299</v>
@@ -5721,10 +5721,10 @@
         <v>300</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" hidden="true">
@@ -5833,7 +5833,7 @@
         <v>297</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>299</v>
@@ -5842,10 +5842,10 @@
         <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" hidden="true">
@@ -5961,10 +5961,10 @@
         <v>321</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>322</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" hidden="true">
@@ -6070,10 +6070,10 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6187,10 +6187,10 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6303,16 +6303,16 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -6420,13 +6420,13 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6539,13 +6539,13 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6654,16 +6654,16 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6999,7 +6999,7 @@
         <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
@@ -7011,7 +7011,7 @@
         <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -7117,10 +7117,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7349,10 +7349,10 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7462,10 +7462,10 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7579,10 +7579,10 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7693,7 +7693,7 @@
         <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>79</v>
@@ -7705,7 +7705,7 @@
         <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
@@ -7811,10 +7811,10 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -8043,10 +8043,10 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
@@ -8156,10 +8156,10 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
@@ -8273,10 +8273,10 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8387,7 +8387,7 @@
         <v>139</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
@@ -8399,7 +8399,7 @@
         <v>79</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" hidden="true">
@@ -8505,10 +8505,10 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8737,10 +8737,10 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8850,10 +8850,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8967,10 +8967,10 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9075,7 +9075,7 @@
         <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>139</v>
@@ -9084,10 +9084,10 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9192,7 +9192,7 @@
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>139</v>
@@ -9201,10 +9201,10 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9309,25 +9309,25 @@
         <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" hidden="true">
@@ -9432,7 +9432,7 @@
         <v>139</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
@@ -9444,7 +9444,7 @@
         <v>79</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" hidden="true">
@@ -9550,10 +9550,10 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9782,10 +9782,10 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9895,10 +9895,10 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10012,10 +10012,10 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -10120,7 +10120,7 @@
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>139</v>
@@ -10129,10 +10129,10 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10365,10 +10365,10 @@
         <v>457</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" hidden="true">
@@ -10939,13 +10939,13 @@
         <v>474</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>79</v>
+        <v>475</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" hidden="true">
@@ -11048,19 +11048,19 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AM76" t="s" s="2">
+      <c r="AN76" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AN76" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AO76" t="s" s="2">
-        <v>475</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" hidden="true">
@@ -11172,10 +11172,10 @@
         <v>495</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" hidden="true">
@@ -11289,10 +11289,10 @@
         <v>504</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" hidden="true">
@@ -11628,10 +11628,10 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11857,16 +11857,16 @@
         <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -11974,16 +11974,16 @@
         <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AL84" t="s" s="2">
+      <c r="AM84" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="AM84" t="s" s="2">
+      <c r="AN84" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -12096,10 +12096,10 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12211,10 +12211,10 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12328,10 +12328,10 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12447,10 +12447,10 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>79</v>
@@ -12564,10 +12564,10 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM89" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12678,13 +12678,13 @@
         <v>100</v>
       </c>
       <c r="AK90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL90" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="AL90" t="s" s="2">
+      <c r="AM90" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12795,13 +12795,13 @@
         <v>100</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="AL91" t="s" s="2">
+      <c r="AM91" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12912,13 +12912,13 @@
         <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL92" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="AL92" t="s" s="2">
+      <c r="AM92" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -13032,10 +13032,10 @@
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="577">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -511,7 +511,7 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -541,10 +541,10 @@
 </t>
   </si>
   <si>
-    <t>An identifier intended for computation</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+    <t>BER (Business and Enterprise Register), BUR (Betriebs- und Unternehmensregister), REE (Registre des entreprises et des établissements), RIS (Registro delle imprese e degli stabilimenti)</t>
+  </si>
+  <si>
+    <t>See [BER](http://fhir.ch/ig/ch-term/NamingSystem/ber)</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -569,6 +569,12 @@
   <si>
     <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-uidb-identifier}
 </t>
+  </si>
+  <si>
+    <t>UIDB (Unique Identification Business), UID (Verwendung der Unternehmens-Identifikationsnummer), IDE (Utilisation du numéro d'identification des entreprises), IDI (Utilizzo del numero d'identificazione delle imprese)</t>
+  </si>
+  <si>
+    <t>See [UIDB](http://fhir.ch/ig/ch-term/NamingSystem/uidb)</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -1533,7 +1539,7 @@
     <t>Use these values for a Swiss or Liechtenstein address</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-core/ValueSet/ech-7-cantonflabbreviation</t>
+    <t>http://fhir.ch/ig/ch-core/ValueSet/ech-7-cantonabbreviation</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -3751,10 +3757,10 @@
         <v>175</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3768,7 +3774,7 @@
         <v>79</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>79</v>
@@ -3839,13 +3845,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>153</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>79</v>
@@ -3867,13 +3873,13 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3887,7 +3893,7 @@
         <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>79</v>
@@ -3958,13 +3964,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>153</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>79</v>
@@ -3986,13 +3992,13 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4006,7 +4012,7 @@
         <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>79</v>
@@ -4077,10 +4083,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4103,70 +4109,70 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="P17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4184,24 +4190,24 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4224,19 +4230,19 @@
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -4265,7 +4271,7 @@
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
@@ -4283,7 +4289,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4301,24 +4307,24 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4341,19 +4347,19 @@
         <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4375,7 +4381,7 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="X19" t="s" s="2">
         <v>79</v>
@@ -4402,7 +4408,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4420,13 +4426,13 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -4434,10 +4440,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4460,19 +4466,19 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4521,7 +4527,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4542,7 +4548,7 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4553,10 +4559,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4579,19 +4585,19 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -4628,7 +4634,7 @@
         <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
@@ -4638,7 +4644,7 @@
         <v>137</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4647,22 +4653,22 @@
         <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4670,10 +4676,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4696,13 +4702,13 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4753,7 +4759,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4774,7 +4780,7 @@
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
@@ -4785,10 +4791,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4814,10 +4820,10 @@
         <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>150</v>
@@ -4861,7 +4867,7 @@
         <v>136</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>79</v>
@@ -4870,7 +4876,7 @@
         <v>137</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4891,7 +4897,7 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -4902,10 +4908,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4931,10 +4937,10 @@
         <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4961,13 +4967,13 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -4985,7 +4991,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4994,7 +5000,7 @@
         <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>100</v>
@@ -5003,13 +5009,13 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -5017,10 +5023,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5043,19 +5049,19 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -5104,7 +5110,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5122,13 +5128,13 @@
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -5136,10 +5142,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5165,16 +5171,16 @@
         <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -5199,13 +5205,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -5223,7 +5229,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5241,13 +5247,13 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -5255,10 +5261,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5281,16 +5287,16 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5340,7 +5346,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5358,10 +5364,10 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5372,10 +5378,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5398,13 +5404,13 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5455,7 +5461,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5476,10 +5482,10 @@
         <v>131</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5487,13 +5493,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>79</v>
@@ -5515,19 +5521,19 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5576,7 +5582,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5588,19 +5594,19 @@
         <v>145</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5608,13 +5614,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>79</v>
@@ -5636,19 +5642,19 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5697,7 +5703,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5709,19 +5715,19 @@
         <v>145</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5729,13 +5735,13 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>79</v>
@@ -5757,19 +5763,19 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5818,7 +5824,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5830,19 +5836,19 @@
         <v>145</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5850,10 +5856,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5876,19 +5882,19 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5937,7 +5943,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5949,19 +5955,19 @@
         <v>145</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5969,10 +5975,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5995,13 +6001,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6052,7 +6058,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6073,7 +6079,7 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
@@ -6084,10 +6090,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6113,10 +6119,10 @@
         <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>150</v>
@@ -6160,7 +6166,7 @@
         <v>136</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>79</v>
@@ -6169,7 +6175,7 @@
         <v>137</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6190,7 +6196,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6201,10 +6207,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6230,16 +6236,16 @@
         <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -6252,7 +6258,7 @@
         <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>79</v>
@@ -6264,13 +6270,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6288,7 +6294,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6306,13 +6312,13 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -6320,10 +6326,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6349,13 +6355,13 @@
         <v>108</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6369,7 +6375,7 @@
         <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>79</v>
@@ -6381,13 +6387,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -6405,7 +6411,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6423,10 +6429,10 @@
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6437,10 +6443,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6463,19 +6469,19 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6488,7 +6494,7 @@
         <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>79</v>
@@ -6524,7 +6530,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6542,10 +6548,10 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6556,10 +6562,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6582,13 +6588,13 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6603,7 +6609,7 @@
         <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>79</v>
@@ -6639,7 +6645,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6657,13 +6663,13 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6671,10 +6677,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6697,13 +6703,13 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6754,7 +6760,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6786,10 +6792,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6857,7 +6863,7 @@
         <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
@@ -6867,7 +6873,7 @@
         <v>137</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6899,13 +6905,13 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="B41" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="C41" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>79</v>
@@ -6927,13 +6933,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>134</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6984,7 +6990,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6999,7 +7005,7 @@
         <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
@@ -7016,10 +7022,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7042,13 +7048,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7099,7 +7105,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7120,7 +7126,7 @@
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7131,10 +7137,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7205,7 +7211,7 @@
         <v>136</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>79</v>
@@ -7214,7 +7220,7 @@
         <v>137</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7246,10 +7252,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7275,13 +7281,13 @@
         <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7289,7 +7295,7 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>79</v>
@@ -7331,7 +7337,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>88</v>
@@ -7363,10 +7369,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7392,10 +7398,10 @@
         <v>108</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7434,17 +7440,17 @@
         <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7476,13 +7482,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>79</v>
@@ -7507,10 +7513,10 @@
         <v>108</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7519,7 +7525,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>79</v>
@@ -7537,13 +7543,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7561,7 +7567,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7593,13 +7599,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>79</v>
@@ -7621,13 +7627,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>134</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7678,7 +7684,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7693,7 +7699,7 @@
         <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>79</v>
@@ -7710,10 +7716,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7736,13 +7742,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7793,7 +7799,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7814,7 +7820,7 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7825,10 +7831,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7899,7 +7905,7 @@
         <v>136</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>79</v>
@@ -7908,7 +7914,7 @@
         <v>137</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7940,10 +7946,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7969,13 +7975,13 @@
         <v>102</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7983,7 +7989,7 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>79</v>
@@ -8025,7 +8031,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>88</v>
@@ -8057,10 +8063,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8086,10 +8092,10 @@
         <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8128,17 +8134,17 @@
         <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8170,13 +8176,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>79</v>
@@ -8201,10 +8207,10 @@
         <v>108</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8213,32 +8219,32 @@
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="S52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8255,7 +8261,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8287,13 +8293,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>79</v>
@@ -8315,13 +8321,13 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>134</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8372,7 +8378,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8387,7 +8393,7 @@
         <v>139</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
@@ -8404,10 +8410,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8430,13 +8436,13 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8487,7 +8493,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8508,7 +8514,7 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8519,10 +8525,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8593,7 +8599,7 @@
         <v>136</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>79</v>
@@ -8602,7 +8608,7 @@
         <v>137</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8634,10 +8640,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8663,13 +8669,13 @@
         <v>102</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8677,7 +8683,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>79</v>
@@ -8719,7 +8725,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>88</v>
@@ -8751,10 +8757,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8780,10 +8786,10 @@
         <v>108</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8822,17 +8828,17 @@
         <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8864,13 +8870,13 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>79</v>
@@ -8895,10 +8901,10 @@
         <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8907,7 +8913,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>79</v>
@@ -8925,13 +8931,13 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -8949,7 +8955,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8981,13 +8987,13 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>79</v>
@@ -9009,13 +9015,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9066,7 +9072,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9087,7 +9093,7 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9098,13 +9104,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>79</v>
@@ -9126,13 +9132,13 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9183,7 +9189,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9204,7 +9210,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9215,13 +9221,13 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>79</v>
@@ -9243,13 +9249,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9300,7 +9306,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9315,13 +9321,13 @@
         <v>139</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9332,13 +9338,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>79</v>
@@ -9360,13 +9366,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9417,7 +9423,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9432,7 +9438,7 @@
         <v>139</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
@@ -9449,10 +9455,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9475,13 +9481,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9532,7 +9538,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9553,7 +9559,7 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9564,10 +9570,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9638,7 +9644,7 @@
         <v>136</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>79</v>
@@ -9647,7 +9653,7 @@
         <v>137</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9679,10 +9685,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9708,13 +9714,13 @@
         <v>102</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9722,7 +9728,7 @@
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>79</v>
@@ -9764,7 +9770,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>88</v>
@@ -9796,10 +9802,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9825,10 +9831,10 @@
         <v>108</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9867,17 +9873,17 @@
         <v>79</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AC66" s="2"/>
       <c r="AD66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9909,13 +9915,13 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D67" t="s" s="2">
         <v>79</v>
@@ -9940,10 +9946,10 @@
         <v>108</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9952,7 +9958,7 @@
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="S67" t="s" s="2">
         <v>79</v>
@@ -9970,13 +9976,13 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -9994,7 +10000,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10026,13 +10032,13 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>79</v>
@@ -10054,13 +10060,13 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10111,7 +10117,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10132,7 +10138,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10143,10 +10149,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10169,13 +10175,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10199,7 +10205,7 @@
         <v>79</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="X69" t="s" s="2">
         <v>79</v>
@@ -10226,7 +10232,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10258,14 +10264,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10284,13 +10290,13 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10305,7 +10311,7 @@
         <v>79</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>79</v>
@@ -10341,7 +10347,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10356,16 +10362,16 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -10373,10 +10379,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10399,13 +10405,13 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10456,7 +10462,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10488,10 +10494,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10569,7 +10575,7 @@
         <v>137</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10601,13 +10607,13 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>79</v>
@@ -10629,13 +10635,13 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>134</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10686,7 +10692,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10718,10 +10724,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10744,13 +10750,13 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10774,7 +10780,7 @@
         <v>79</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="X74" t="s" s="2">
         <v>79</v>
@@ -10801,7 +10807,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10833,14 +10839,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10859,16 +10865,16 @@
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10882,7 +10888,7 @@
         <v>79</v>
       </c>
       <c r="T75" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="U75" t="s" s="2">
         <v>79</v>
@@ -10918,7 +10924,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -10933,13 +10939,13 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>79</v>
@@ -10950,14 +10956,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10976,13 +10982,13 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11009,13 +11015,13 @@
         <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>79</v>
@@ -11033,7 +11039,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11048,16 +11054,16 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -11065,14 +11071,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11091,13 +11097,13 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11112,7 +11118,7 @@
         <v>79</v>
       </c>
       <c r="T77" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="U77" t="s" s="2">
         <v>79</v>
@@ -11148,7 +11154,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11163,16 +11169,16 @@
         <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11180,10 +11186,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11206,16 +11212,16 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11265,7 +11271,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11280,16 +11286,16 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11297,10 +11303,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11323,13 +11329,13 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11380,7 +11386,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11412,10 +11418,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11493,7 +11499,7 @@
         <v>137</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11525,13 +11531,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>79</v>
@@ -11553,13 +11559,13 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11610,7 +11616,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11622,7 +11628,7 @@
         <v>145</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -11631,7 +11637,7 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>79</v>
@@ -11642,10 +11648,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11668,13 +11674,13 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11698,7 +11704,7 @@
         <v>79</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="X82" t="s" s="2">
         <v>79</v>
@@ -11725,7 +11731,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11757,10 +11763,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11783,17 +11789,17 @@
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -11806,7 +11812,7 @@
         <v>79</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>79</v>
@@ -11842,7 +11848,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -11860,13 +11866,13 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -11874,10 +11880,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11900,17 +11906,17 @@
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>79</v>
@@ -11959,7 +11965,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -11977,13 +11983,13 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -11991,10 +11997,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12017,19 +12023,19 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>79</v>
@@ -12078,7 +12084,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12099,7 +12105,7 @@
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>79</v>
@@ -12110,10 +12116,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12136,13 +12142,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12193,7 +12199,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12214,7 +12220,7 @@
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>79</v>
@@ -12225,10 +12231,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12254,10 +12260,10 @@
         <v>133</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>150</v>
@@ -12310,7 +12316,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12331,7 +12337,7 @@
         <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>79</v>
@@ -12342,14 +12348,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12371,10 +12377,10 @@
         <v>133</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>150</v>
@@ -12429,7 +12435,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12461,10 +12467,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12487,17 +12493,17 @@
         <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -12522,13 +12528,13 @@
         <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
@@ -12546,7 +12552,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12567,7 +12573,7 @@
         <v>79</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>79</v>
@@ -12578,10 +12584,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12604,17 +12610,17 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -12663,7 +12669,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12681,10 +12687,10 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>79</v>
@@ -12695,10 +12701,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12721,17 +12727,17 @@
         <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -12780,7 +12786,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -12798,10 +12804,10 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>79</v>
@@ -12812,10 +12818,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12838,17 +12844,17 @@
         <v>79</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -12897,7 +12903,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -12915,10 +12921,10 @@
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>79</v>
@@ -12929,10 +12935,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12955,17 +12961,17 @@
         <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>79</v>
@@ -13014,7 +13020,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13035,7 +13041,7 @@
         <v>79</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>79</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3499,7 +3499,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>164</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>170</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>210</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>398</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>440</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>496</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
         <v>501</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>522</v>
       </c>
@@ -15742,7 +15742,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>532</v>
       </c>
@@ -16549,7 +16549,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
         <v>570</v>
       </c>
@@ -18532,12 +18532,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO138">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-organization-orderer.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
